--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3937.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3937.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176423479871954</v>
+        <v>0.4960103631019592</v>
       </c>
       <c r="B1">
-        <v>1.675553511941444</v>
+        <v>1.315841436386108</v>
       </c>
       <c r="C1">
-        <v>3.128993820098428</v>
+        <v>6.349945068359375</v>
       </c>
       <c r="D1">
-        <v>7.077775015394955</v>
+        <v>1.672683238983154</v>
       </c>
       <c r="E1">
-        <v>1.853623207561561</v>
+        <v>1.522847414016724</v>
       </c>
     </row>
   </sheetData>
